--- a/biology/Botanique/Famille_Ruinart/Famille_Ruinart.xlsx
+++ b/biology/Botanique/Famille_Ruinart/Famille_Ruinart.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Ruinart puis Ruinart de Brimont est le patronyme d'une ancienne famille française, fondatrice de la maison de champagne Ruinart propriété actuelle du groupe LVMH.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Originaire du Dauphiné, la famille Ruinart vint se fixer à Reims sous le règne Louis XI[1]. Sous le règne de Louis XVI Claude Ruinart (1731-1798) achète une charge de secrétaire du roi (1777-1790), après avoir racheté les seigneuries de Brimont et Brimontel en 1771. Selon l'Académie nationale de Reims, Claude Ruinart, écuyer, conseiller secrétaire du roi, seigneur de Brimont, avocat en Parlement et contrôleur des guerres, a été anobli par l'achat de sa charge de conseiller secrétaire du roi en 1777 [2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Originaire du Dauphiné, la famille Ruinart vint se fixer à Reims sous le règne Louis XI. Sous le règne de Louis XVI Claude Ruinart (1731-1798) achète une charge de secrétaire du roi (1777-1790), après avoir racheté les seigneuries de Brimont et Brimontel en 1771. Selon l'Académie nationale de Reims, Claude Ruinart, écuyer, conseiller secrétaire du roi, seigneur de Brimont, avocat en Parlement et contrôleur des guerres, a été anobli par l'achat de sa charge de conseiller secrétaire du roi en 1777 .
 La famille obtint des lettres de noblesse en 1817 de Louis XVIII et un titre de vicomte héréditaire en 1827 de Charles X.
 Edgard Ruinart de Brimont fut autorisé par décret Impérial du 18 aout 1861 à ajouter à son nom patronymique celui de Brassac et à s'appeler, à l'avenir, "Ruinart de Brimont - Brassac".
 Cette famille a été admise à l'ANF en 1985.
@@ -547,7 +561,9 @@
           <t>Membres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Dom Ruinart (1657-1709), savant bénédictin, disciple de Dom Mabillon et collaborateur de Dom Pérignon.
 Jacques Ruinart (1662°), maître, bachelier en théologie à Reims. Frère de Dom Ruinart.
@@ -562,7 +578,7 @@
 Jacques Edmond Ruinart de Brimont (1795-1856), propriétaire et négociant. Fils  de Irénée.
 Charles Edmond Ruinart de Brimont (1824-1896), propriétaire au château de Belombre, négociant. Fils de Jacques Edmond.
 Marie Paul André Ruinart de Brimont (1861-1919), vicomte romain et de Brimont, propriétaire et négociant en vins de Champagne. Fils du précédent.
-Jean Arthur Ruinart de Brimont (1798-1874), vicomte de Brimont, conseiller honoraire à la Cour des comptes et officier de la Légion d'honneur[3].
+Jean Arthur Ruinart de Brimont (1798-1874), vicomte de Brimont, conseiller honoraire à la Cour des comptes et officier de la Légion d'honneur.
 Marie-Mathilde Ruinart de Brimont (1838-1911), épouse du comte Victor Sallier de La Tour, artiste peintre et confidente d'Arthur de Gobineau.
 Michel Marie Robert Ruinart de Brimont (1836-1892), capitaine (23e RI), chevalier de la Légion d'honneur.
 Renée de Brimont née Renée Bonnin de la Bonninière de Beaumont (1880-1943), écrivaine
@@ -595,7 +611,9 @@
           <t>Postérité</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rue Ruinart de Brimont, à Reims</t>
         </is>
@@ -625,7 +643,9 @@
           <t>Sources, littérature</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Patrick de Gmeline, Ruinart la plus ancienne maison de champagne de 1729 à nos jours, Stock, 1994,  (ISBN 2-234-04419-7)
 H. Jadart, Dom Thierry Ruinart (1657-1709), Reims, 1886
